--- a/STM_VSAM_CREW_WSEMPSTS_LND.xlsx
+++ b/STM_VSAM_CREW_WSEMPSTS_LND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="753" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="753" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="STM Overview" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="STM_CREW_WSEMPSTS_LND" sheetId="4" r:id="rId5"/>
     <sheet name="SQL" sheetId="7" r:id="rId6"/>
     <sheet name="TEST PLAN" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Change Log'!$C$3:$C$22</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="402">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1289,6 +1290,9 @@
   </si>
   <si>
     <t>SUBSTR(TO_CHAR('EMPL_STAT_EFF_TS','EMPL_STAT_EFF_TS'),9,2)</t>
+  </si>
+  <si>
+    <t>HHHHHHHHHHH</t>
   </si>
 </sst>
 </file>
@@ -2064,6 +2068,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2139,7 +2144,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="dateFormat" xfId="5"/>
@@ -2452,7 +2456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2500,10 +2504,10 @@
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="142"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -2518,49 +2522,49 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="144"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -2598,10 +2602,10 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2622,17 +2626,17 @@
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -2642,15 +2646,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -2658,15 +2662,15 @@
     <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="95"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -2674,15 +2678,15 @@
     <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="95"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -2690,15 +2694,15 @@
     <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="95"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -2706,15 +2710,15 @@
     <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="95"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2722,15 +2726,15 @@
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="95"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2768,10 +2772,10 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3889,15 +3893,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3961,15 +3965,15 @@
       <c r="G6" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -4037,15 +4041,15 @@
       <c r="G14" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -4143,14 +4147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4354,16 +4358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4595,7 +4599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N55" sqref="N55:N56"/>
     </sheetView>
   </sheetViews>
@@ -4643,19 +4647,19 @@
       <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -4677,10 +4681,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="39"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="20"/>
@@ -4712,50 +4716,50 @@
       <c r="AG4" s="20"/>
     </row>
     <row r="5" spans="1:34" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="158"/>
       <c r="L5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="158" t="s">
+      <c r="M5" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="161"/>
       <c r="W5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="146" t="s">
+      <c r="X5" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
     </row>
     <row r="6" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
@@ -4903,16 +4907,16 @@
       <c r="B8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="150"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="151"/>
       <c r="M8" s="65"/>
       <c r="N8" s="66"/>
       <c r="O8" s="66"/>
@@ -5211,12 +5215,12 @@
       <c r="B13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="66"/>
       <c r="H13" s="74"/>
       <c r="I13" s="66"/>
@@ -5254,16 +5258,16 @@
       <c r="B14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7429,10 +7433,10 @@
       <c r="M51" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="N51" s="163" t="s">
+      <c r="N51" s="138" t="s">
         <v>326</v>
       </c>
-      <c r="O51" s="163" t="s">
+      <c r="O51" s="138" t="s">
         <v>345</v>
       </c>
       <c r="P51" s="105"/>
@@ -7500,10 +7504,10 @@
       <c r="M52" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="N52" s="163" t="s">
+      <c r="N52" s="138" t="s">
         <v>326</v>
       </c>
-      <c r="O52" s="163" t="s">
+      <c r="O52" s="138" t="s">
         <v>345</v>
       </c>
       <c r="P52" s="43"/>
@@ -7561,10 +7565,10 @@
       <c r="M53" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="N53" s="163" t="s">
+      <c r="N53" s="138" t="s">
         <v>326</v>
       </c>
-      <c r="O53" s="163" t="s">
+      <c r="O53" s="138" t="s">
         <v>345</v>
       </c>
       <c r="P53" s="43"/>
@@ -7669,10 +7673,10 @@
       <c r="M55" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="N55" s="163" t="s">
+      <c r="N55" s="138" t="s">
         <v>326</v>
       </c>
-      <c r="O55" s="163" t="s">
+      <c r="O55" s="138" t="s">
         <v>345</v>
       </c>
       <c r="P55" s="43"/>
@@ -7730,10 +7734,10 @@
       <c r="M56" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="N56" s="163" t="s">
+      <c r="N56" s="138" t="s">
         <v>326</v>
       </c>
-      <c r="O56" s="163" t="s">
+      <c r="O56" s="138" t="s">
         <v>345</v>
       </c>
       <c r="P56" s="43"/>
@@ -9716,7 +9720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="M93" s="100" t="s">
         <v>317</v>
       </c>
@@ -9763,7 +9767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:33" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H94" s="137"/>
       <c r="M94" s="117"/>
       <c r="N94" s="117"/>
@@ -9797,7 +9801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:33" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H95" s="137"/>
       <c r="M95" s="117"/>
       <c r="N95" s="117"/>
@@ -9831,7 +9835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="M96" s="100" t="s">
         <v>317</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M97" s="100" t="s">
         <v>317</v>
       </c>
@@ -9927,7 +9931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H98" s="137"/>
       <c r="M98" s="117"/>
       <c r="N98" s="117"/>
@@ -9961,7 +9965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H99" s="137"/>
       <c r="M99" s="117"/>
       <c r="N99" s="117"/>
@@ -9995,7 +9999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M100" s="100" t="s">
         <v>317</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M101" s="100" t="s">
         <v>317</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H102" s="137"/>
       <c r="M102" s="117"/>
       <c r="N102" s="117"/>
@@ -10125,7 +10129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H103" s="137"/>
       <c r="M103" s="117"/>
       <c r="N103" s="117"/>
@@ -10159,7 +10163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M104" s="100" t="s">
         <v>317</v>
       </c>
@@ -10208,7 +10212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M105" s="100" t="s">
         <v>317</v>
       </c>
@@ -10255,7 +10259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H106" s="137"/>
       <c r="M106" s="117"/>
       <c r="N106" s="117"/>
@@ -10289,7 +10293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H107" s="137"/>
       <c r="M107" s="117"/>
       <c r="N107" s="117"/>
@@ -10323,7 +10327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M108" s="43" t="s">
         <v>317</v>
       </c>
@@ -10372,7 +10376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M109" s="43" t="s">
         <v>317</v>
       </c>
@@ -10419,7 +10423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H110" s="137"/>
       <c r="M110" s="117"/>
       <c r="N110" s="117"/>
@@ -10453,7 +10457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H111" s="137"/>
       <c r="M111" s="117"/>
       <c r="N111" s="117"/>
@@ -10487,7 +10491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M112" s="100" t="s">
         <v>317</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M113" s="100" t="s">
         <v>317</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H114" s="137"/>
       <c r="M114" s="117"/>
       <c r="N114" s="117"/>
@@ -10617,7 +10621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H115" s="137"/>
       <c r="M115" s="117"/>
       <c r="N115" s="117"/>
@@ -10651,7 +10655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M116" s="100" t="s">
         <v>317</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M117" s="100" t="s">
         <v>317</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H118" s="137"/>
       <c r="M118" s="117"/>
       <c r="N118" s="117"/>
@@ -10781,7 +10785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H119" s="137"/>
       <c r="M119" s="117"/>
       <c r="N119" s="117"/>
@@ -10815,7 +10819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M120" s="100" t="s">
         <v>317</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M121" s="100" t="s">
         <v>317</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H122" s="137"/>
       <c r="M122" s="117"/>
       <c r="N122" s="117"/>
@@ -10945,7 +10949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H123" s="137"/>
       <c r="M123" s="117"/>
       <c r="N123" s="117"/>
@@ -10979,7 +10983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M124" s="100" t="s">
         <v>317</v>
       </c>
@@ -11028,7 +11032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M125" s="100" t="s">
         <v>317</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H126" s="137"/>
       <c r="M126" s="117"/>
       <c r="N126" s="117"/>
@@ -11109,7 +11113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H127" s="137"/>
       <c r="M127" s="117"/>
       <c r="N127" s="117"/>
@@ -11143,7 +11147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M128" s="100" t="s">
         <v>317</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M129" s="100" t="s">
         <v>317</v>
       </c>
@@ -11239,7 +11243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H130" s="137"/>
       <c r="M130" s="117"/>
       <c r="N130" s="117"/>
@@ -11273,7 +11277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H131" s="137"/>
       <c r="M131" s="117"/>
       <c r="N131" s="117"/>
@@ -11307,7 +11311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M132" s="100" t="s">
         <v>317</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M133" s="100" t="s">
         <v>317</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H134" s="137"/>
       <c r="M134" s="117"/>
       <c r="N134" s="117"/>
@@ -11437,7 +11441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H135" s="137"/>
       <c r="M135" s="117"/>
       <c r="N135" s="117"/>
@@ -11471,7 +11475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M136" s="100" t="s">
         <v>317</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M137" s="100" t="s">
         <v>317</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H138" s="137"/>
       <c r="M138" s="117"/>
       <c r="N138" s="117"/>
@@ -11601,7 +11605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H139" s="137"/>
       <c r="M139" s="117"/>
       <c r="N139" s="117"/>
@@ -11635,7 +11639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M140" s="100" t="s">
         <v>317</v>
       </c>
@@ -11684,7 +11688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M141" s="100" t="s">
         <v>317</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H142" s="137"/>
       <c r="M142" s="117"/>
       <c r="N142" s="117"/>
@@ -11765,7 +11769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H143" s="137"/>
       <c r="M143" s="117"/>
       <c r="N143" s="117"/>
@@ -11799,7 +11803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M144" s="100" t="s">
         <v>317</v>
       </c>
@@ -11848,7 +11852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M145" s="100" t="s">
         <v>317</v>
       </c>
@@ -11895,7 +11899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H146" s="137"/>
       <c r="M146" s="117"/>
       <c r="N146" s="117"/>
@@ -11929,7 +11933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H147" s="137"/>
       <c r="M147" s="117"/>
       <c r="N147" s="117"/>
@@ -11963,7 +11967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M148" s="100" t="s">
         <v>317</v>
       </c>
@@ -12012,7 +12016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M149" s="100" t="s">
         <v>317</v>
       </c>
@@ -12059,7 +12063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H150" s="137"/>
       <c r="M150" s="117"/>
       <c r="N150" s="117"/>
@@ -12093,7 +12097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H151" s="137"/>
       <c r="M151" s="117"/>
       <c r="N151" s="117"/>
@@ -12127,7 +12131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M152" s="100" t="s">
         <v>317</v>
       </c>
@@ -12176,7 +12180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M153" s="100" t="s">
         <v>317</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H154" s="137"/>
       <c r="M154" s="117"/>
       <c r="N154" s="117"/>
@@ -12257,7 +12261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H155" s="137"/>
       <c r="M155" s="117"/>
       <c r="N155" s="117"/>
@@ -12291,7 +12295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M156" s="100" t="s">
         <v>317</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M157" s="100" t="s">
         <v>317</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H158" s="137"/>
       <c r="M158" s="117"/>
       <c r="N158" s="117"/>
@@ -12421,7 +12425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H159" s="137"/>
       <c r="M159" s="117"/>
       <c r="N159" s="117"/>
@@ -12455,7 +12459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M160" s="100" t="s">
         <v>317</v>
       </c>
@@ -12504,7 +12508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M161" s="100" t="s">
         <v>317</v>
       </c>
@@ -12551,7 +12555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H162" s="137"/>
       <c r="M162" s="117"/>
       <c r="N162" s="117"/>
@@ -12585,7 +12589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H163" s="137"/>
       <c r="M163" s="117"/>
       <c r="N163" s="117"/>
@@ -12619,7 +12623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M164" s="100" t="s">
         <v>317</v>
       </c>
@@ -12668,7 +12672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M165" s="100" t="s">
         <v>317</v>
       </c>
@@ -12715,7 +12719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H166" s="137"/>
       <c r="M166" s="117"/>
       <c r="N166" s="117"/>
@@ -12749,7 +12753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H167" s="137"/>
       <c r="M167" s="117"/>
       <c r="N167" s="117"/>
@@ -12783,7 +12787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M168" s="100" t="s">
         <v>317</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M169" s="100" t="s">
         <v>317</v>
       </c>
@@ -12879,7 +12883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H170" s="137"/>
       <c r="M170" s="117"/>
       <c r="N170" s="117"/>
@@ -12913,7 +12917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="8:31" s="124" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:31" s="124" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H171" s="137"/>
       <c r="M171" s="117"/>
       <c r="N171" s="117"/>
@@ -12947,7 +12951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M172" s="100" t="s">
         <v>317</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M173" s="100" t="s">
         <v>317</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H174" s="137"/>
       <c r="M174" s="117"/>
       <c r="N174" s="117"/>
@@ -13077,7 +13081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H175" s="137"/>
       <c r="M175" s="117"/>
       <c r="N175" s="117"/>
@@ -13111,7 +13115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M176" s="100" t="s">
         <v>317</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M177" s="100" t="s">
         <v>317</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H178" s="137"/>
       <c r="M178" s="117"/>
       <c r="N178" s="117"/>
@@ -13241,7 +13245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H179" s="137"/>
       <c r="M179" s="117"/>
       <c r="N179" s="117"/>
@@ -13275,7 +13279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M180" s="100" t="s">
         <v>317</v>
       </c>
@@ -13324,7 +13328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M181" s="100" t="s">
         <v>317</v>
       </c>
@@ -13371,7 +13375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H182" s="137"/>
       <c r="M182" s="117"/>
       <c r="N182" s="117"/>
@@ -13405,7 +13409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H183" s="137"/>
       <c r="M183" s="117"/>
       <c r="N183" s="117"/>
@@ -13439,7 +13443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M184" s="100" t="s">
         <v>317</v>
       </c>
@@ -13488,7 +13492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M185" s="100" t="s">
         <v>317</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H186" s="137"/>
       <c r="M186" s="117"/>
       <c r="N186" s="117"/>
@@ -13569,7 +13573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H187" s="137"/>
       <c r="M187" s="117"/>
       <c r="N187" s="117"/>
@@ -13603,7 +13607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M188" s="100" t="s">
         <v>317</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M189" s="100" t="s">
         <v>317</v>
       </c>
@@ -13699,7 +13703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H190" s="137"/>
       <c r="M190" s="117"/>
       <c r="N190" s="117"/>
@@ -13733,7 +13737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H191" s="137"/>
       <c r="M191" s="117"/>
       <c r="N191" s="117"/>
@@ -13767,7 +13771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M192" s="100" t="s">
         <v>317</v>
       </c>
@@ -13816,7 +13820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M193" s="100" t="s">
         <v>317</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H194" s="137"/>
       <c r="M194" s="117"/>
       <c r="N194" s="117"/>
@@ -13897,7 +13901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H195" s="137"/>
       <c r="M195" s="117"/>
       <c r="N195" s="117"/>
@@ -13931,7 +13935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M196" s="100" t="s">
         <v>317</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="8:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:31" x14ac:dyDescent="0.35">
       <c r="M197" s="100" t="s">
         <v>317</v>
       </c>
@@ -14027,7 +14031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="8:31" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:31" s="124" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H198" s="137"/>
       <c r="M198" s="117"/>
       <c r="N198" s="117"/>
@@ -14151,10 +14155,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14343,19 +14368,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14380,9 +14401,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/STM_VSAM_CREW_WSEMPSTS_LND.xlsx
+++ b/STM_VSAM_CREW_WSEMPSTS_LND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="753" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="753" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="STM Overview" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="STM_CREW_WSEMPSTS_LND" sheetId="4" r:id="rId5"/>
     <sheet name="SQL" sheetId="7" r:id="rId6"/>
     <sheet name="TEST PLAN" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Change Log'!$C$3:$C$22</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="401">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1290,9 +1289,6 @@
   </si>
   <si>
     <t>SUBSTR(TO_CHAR('EMPL_STAT_EFF_TS','EMPL_STAT_EFF_TS'),9,2)</t>
-  </si>
-  <si>
-    <t>HHHHHHHHHHH</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14102,7 +14098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -14155,34 +14151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100247BB3B7EC65B043BAC1ABE70EC76B92" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="82a49cf3aa2f741205d94de9cd76db83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="226b0d82-e8c7-46a6-91a3-5ce81f64bc01" xmlns:ns3="967e99e6-638a-42c7-9bb9-dd0927180630" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5dc08499859e1883b9b67a5a44ba63" ns2:_="" ns3:_="">
     <xsd:import namespace="226b0d82-e8c7-46a6-91a3-5ce81f64bc01"/>
@@ -14367,6 +14336,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14374,14 +14352,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F94FB219-BFB2-4CFD-A8AC-FA3A1E667BDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14400,6 +14370,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C85915-3691-45EF-9C63-CB20C47BEE32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0F41AE-379F-4050-B270-950FF7401E62}">
   <ds:schemaRefs>
